--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Angptl3-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Angptl3-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Angptl3</t>
+  </si>
+  <si>
+    <t>Itgav</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Angptl3</t>
-  </si>
-  <si>
-    <t>Itgav</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.030331</v>
+        <v>1.227591333333333</v>
       </c>
       <c r="H2">
-        <v>0.09099299999999999</v>
+        <v>3.682774</v>
       </c>
       <c r="I2">
-        <v>0.005854802217609369</v>
+        <v>0.3272823266784658</v>
       </c>
       <c r="J2">
-        <v>0.006431404745936082</v>
+        <v>0.3458596101341676</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N2">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O2">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P2">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q2">
-        <v>0.3240629150546667</v>
+        <v>17.06271996217822</v>
       </c>
       <c r="R2">
-        <v>2.916566235492</v>
+        <v>153.564479659604</v>
       </c>
       <c r="S2">
-        <v>0.0002754851879425336</v>
+        <v>0.01588467244541262</v>
       </c>
       <c r="T2">
-        <v>0.0003146717130350411</v>
+        <v>0.01729046914534015</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.030331</v>
+        <v>1.227591333333333</v>
       </c>
       <c r="H3">
-        <v>0.09099299999999999</v>
+        <v>3.682774</v>
       </c>
       <c r="I3">
-        <v>0.005854802217609369</v>
+        <v>0.3272823266784658</v>
       </c>
       <c r="J3">
-        <v>0.006431404745936082</v>
+        <v>0.3458596101341676</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>211.087055</v>
       </c>
       <c r="O3">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P3">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q3">
-        <v>2.134160488401667</v>
+        <v>86.37621309895223</v>
       </c>
       <c r="R3">
-        <v>19.207444395615</v>
+        <v>777.38591789057</v>
       </c>
       <c r="S3">
-        <v>0.001814245246629605</v>
+        <v>0.08041261036888388</v>
       </c>
       <c r="T3">
-        <v>0.002072313447725933</v>
+        <v>0.08752914252764309</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.030331</v>
+        <v>1.227591333333333</v>
       </c>
       <c r="H4">
-        <v>0.09099299999999999</v>
+        <v>3.682774</v>
       </c>
       <c r="I4">
-        <v>0.005854802217609369</v>
+        <v>0.3272823266784658</v>
       </c>
       <c r="J4">
-        <v>0.006431404745936082</v>
+        <v>0.3458596101341676</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N4">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O4">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P4">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q4">
-        <v>1.792291385714667</v>
+        <v>100.6718988209034</v>
       </c>
       <c r="R4">
-        <v>16.130622471432</v>
+        <v>906.0470893881301</v>
       </c>
       <c r="S4">
-        <v>0.001523623056831719</v>
+        <v>0.09372129067185511</v>
       </c>
       <c r="T4">
-        <v>0.001740351562614446</v>
+        <v>0.1020156437088604</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.030331</v>
+        <v>1.227591333333333</v>
       </c>
       <c r="H5">
-        <v>0.09099299999999999</v>
+        <v>3.682774</v>
       </c>
       <c r="I5">
-        <v>0.005854802217609369</v>
+        <v>0.3272823266784658</v>
       </c>
       <c r="J5">
-        <v>0.006431404745936082</v>
+        <v>0.3458596101341676</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N5">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O5">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P5">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q5">
-        <v>0.7915899486144999</v>
+        <v>30.75134274213034</v>
       </c>
       <c r="R5">
-        <v>4.749539691687</v>
+        <v>184.508056452782</v>
       </c>
       <c r="S5">
-        <v>0.0006729289148395745</v>
+        <v>0.02862820276005973</v>
       </c>
       <c r="T5">
-        <v>0.0005124333446378776</v>
+        <v>0.02077453630054993</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.030331</v>
+        <v>1.227591333333333</v>
       </c>
       <c r="H6">
-        <v>0.09099299999999999</v>
+        <v>3.682774</v>
       </c>
       <c r="I6">
-        <v>0.005854802217609369</v>
+        <v>0.3272823266784658</v>
       </c>
       <c r="J6">
-        <v>0.006431404745936082</v>
+        <v>0.3458596101341676</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N6">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O6">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P6">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q6">
-        <v>1.845105017037334</v>
+        <v>116.6922378369822</v>
       </c>
       <c r="R6">
-        <v>16.605945153336</v>
+        <v>1050.23014053284</v>
       </c>
       <c r="S6">
-        <v>0.001568519811365937</v>
+        <v>0.1086355504322544</v>
       </c>
       <c r="T6">
-        <v>0.001791634677922785</v>
+        <v>0.118249818451774</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,14 +835,14 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.227591333333333</v>
+        <v>0.930009</v>
       </c>
       <c r="H7">
-        <v>3.682774</v>
+        <v>2.790027</v>
       </c>
       <c r="I7">
-        <v>0.2369623309722081</v>
+        <v>0.2479453064607656</v>
       </c>
       <c r="J7">
-        <v>0.2602992557868189</v>
+        <v>0.2620192416053228</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N7">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O7">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P7">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q7">
-        <v>13.11584932827289</v>
+        <v>12.926519354138</v>
       </c>
       <c r="R7">
-        <v>118.042643954456</v>
+        <v>116.338674187242</v>
       </c>
       <c r="S7">
-        <v>0.01114975533876096</v>
+        <v>0.01203404417671495</v>
       </c>
       <c r="T7">
-        <v>0.01273575773192345</v>
+        <v>0.0130990595019314</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.227591333333333</v>
+        <v>0.930009</v>
       </c>
       <c r="H8">
-        <v>3.682774</v>
+        <v>2.790027</v>
       </c>
       <c r="I8">
-        <v>0.2369623309722081</v>
+        <v>0.2479453064607656</v>
       </c>
       <c r="J8">
-        <v>0.2602992557868189</v>
+        <v>0.2620192416053228</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>211.087055</v>
       </c>
       <c r="O8">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P8">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q8">
-        <v>86.37621309895223</v>
+        <v>65.43762031116501</v>
       </c>
       <c r="R8">
-        <v>777.38591789057</v>
+        <v>588.9385828004849</v>
       </c>
       <c r="S8">
-        <v>0.07342823320377498</v>
+        <v>0.06091966383754906</v>
       </c>
       <c r="T8">
-        <v>0.08387306809463832</v>
+        <v>0.06631106631549273</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.227591333333333</v>
+        <v>0.930009</v>
       </c>
       <c r="H9">
-        <v>3.682774</v>
+        <v>2.790027</v>
       </c>
       <c r="I9">
-        <v>0.2369623309722081</v>
+        <v>0.2479453064607656</v>
       </c>
       <c r="J9">
-        <v>0.2602992557868189</v>
+        <v>0.2620192416053228</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N9">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O9">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P9">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q9">
-        <v>72.53969113815289</v>
+        <v>76.267866518985</v>
       </c>
       <c r="R9">
-        <v>652.857220243376</v>
+        <v>686.410798670865</v>
       </c>
       <c r="S9">
-        <v>0.06166583560823774</v>
+        <v>0.07100216615228733</v>
       </c>
       <c r="T9">
-        <v>0.07043752250893867</v>
+        <v>0.07728587210893222</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.227591333333333</v>
+        <v>0.930009</v>
       </c>
       <c r="H10">
-        <v>3.682774</v>
+        <v>2.790027</v>
       </c>
       <c r="I10">
-        <v>0.2369623309722081</v>
+        <v>0.2479453064607656</v>
       </c>
       <c r="J10">
-        <v>0.2602992557868189</v>
+        <v>0.2620192416053228</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N10">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O10">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P10">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q10">
-        <v>32.03814448824433</v>
+        <v>23.2968616963185</v>
       </c>
       <c r="R10">
-        <v>192.228866929466</v>
+        <v>139.781170177911</v>
       </c>
       <c r="S10">
-        <v>0.02723555780575868</v>
+        <v>0.02168839539489558</v>
       </c>
       <c r="T10">
-        <v>0.02073979535091067</v>
+        <v>0.0157385484938838</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.227591333333333</v>
+        <v>0.930009</v>
       </c>
       <c r="H11">
-        <v>3.682774</v>
+        <v>2.790027</v>
       </c>
       <c r="I11">
-        <v>0.2369623309722081</v>
+        <v>0.2479453064607656</v>
       </c>
       <c r="J11">
-        <v>0.2602992557868189</v>
+        <v>0.2620192416053228</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N11">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O11">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P11">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q11">
-        <v>74.67722554498313</v>
+        <v>88.40469012098001</v>
       </c>
       <c r="R11">
-        <v>672.0950299048482</v>
+        <v>795.6422110888201</v>
       </c>
       <c r="S11">
-        <v>0.06348294901567569</v>
+        <v>0.08230103689931868</v>
       </c>
       <c r="T11">
-        <v>0.0725131121004078</v>
+        <v>0.08958469518508268</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.334743666666667</v>
+        <v>0.6044145</v>
       </c>
       <c r="H12">
-        <v>4.004231</v>
+        <v>1.208829</v>
       </c>
       <c r="I12">
-        <v>0.2576459786864944</v>
+        <v>0.1611400948075023</v>
       </c>
       <c r="J12">
-        <v>0.2830199054567317</v>
+        <v>0.1135245134941421</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N12">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O12">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P12">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q12">
-        <v>14.26068785964044</v>
+        <v>8.400967874689</v>
       </c>
       <c r="R12">
-        <v>128.346190736764</v>
+        <v>50.405807248134</v>
       </c>
       <c r="S12">
-        <v>0.01212298011495741</v>
+        <v>0.007820946672609701</v>
       </c>
       <c r="T12">
-        <v>0.0138474193416858</v>
+        <v>0.005675401348682375</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.334743666666667</v>
+        <v>0.6044145</v>
       </c>
       <c r="H13">
-        <v>4.004231</v>
+        <v>1.208829</v>
       </c>
       <c r="I13">
-        <v>0.2576459786864944</v>
+        <v>0.1611400948075023</v>
       </c>
       <c r="J13">
-        <v>0.2830199054567317</v>
+        <v>0.1135245134941421</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>211.087055</v>
       </c>
       <c r="O13">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P13">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q13">
-        <v>93.91570325885611</v>
+        <v>42.5280256014325</v>
       </c>
       <c r="R13">
-        <v>845.241329329705</v>
+        <v>255.168153608595</v>
       </c>
       <c r="S13">
-        <v>0.0798375375925281</v>
+        <v>0.03959179766920568</v>
       </c>
       <c r="T13">
-        <v>0.09119406711616344</v>
+        <v>0.02873045314009175</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.334743666666667</v>
+        <v>0.6044145</v>
       </c>
       <c r="H14">
-        <v>4.004231</v>
+        <v>1.208829</v>
       </c>
       <c r="I14">
-        <v>0.2576459786864944</v>
+        <v>0.1611400948075023</v>
       </c>
       <c r="J14">
-        <v>0.2830199054567317</v>
+        <v>0.1135245134941421</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N14">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O14">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P14">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q14">
-        <v>78.87143766786043</v>
+        <v>49.5666218371425</v>
       </c>
       <c r="R14">
-        <v>709.842939010744</v>
+        <v>297.399731022855</v>
       </c>
       <c r="S14">
-        <v>0.06704843973141154</v>
+        <v>0.04614443382144869</v>
       </c>
       <c r="T14">
-        <v>0.07658577778421645</v>
+        <v>0.03348548365143722</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.334743666666667</v>
+        <v>0.6044145</v>
       </c>
       <c r="H15">
-        <v>4.004231</v>
+        <v>1.208829</v>
       </c>
       <c r="I15">
-        <v>0.2576459786864944</v>
+        <v>0.1611400948075023</v>
       </c>
       <c r="J15">
-        <v>0.2830199054567317</v>
+        <v>0.1135245134941421</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N15">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O15">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P15">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q15">
-        <v>34.83464674788816</v>
+        <v>15.14067177172425</v>
       </c>
       <c r="R15">
-        <v>209.007880487329</v>
+        <v>60.562687086897</v>
       </c>
       <c r="S15">
-        <v>0.02961285836929197</v>
+        <v>0.01409532666717001</v>
       </c>
       <c r="T15">
-        <v>0.02255010257967836</v>
+        <v>0.006819007069577843</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.334743666666667</v>
+        <v>0.6044145</v>
       </c>
       <c r="H16">
-        <v>4.004231</v>
+        <v>1.208829</v>
       </c>
       <c r="I16">
-        <v>0.2576459786864944</v>
+        <v>0.1611400948075023</v>
       </c>
       <c r="J16">
-        <v>0.2830199054567317</v>
+        <v>0.1135245134941421</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N16">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O16">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P16">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q16">
-        <v>81.19555028932356</v>
+        <v>57.45436504069</v>
       </c>
       <c r="R16">
-        <v>730.7599526039121</v>
+        <v>344.72619024414</v>
       </c>
       <c r="S16">
-        <v>0.06902416287830533</v>
+        <v>0.05348758997706824</v>
       </c>
       <c r="T16">
-        <v>0.07884253863498764</v>
+        <v>0.03881416828435292</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
         <v>26</v>
       </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.39337</v>
+        <v>0.9888486666666667</v>
       </c>
       <c r="H17">
-        <v>2.78674</v>
+        <v>2.966546</v>
       </c>
       <c r="I17">
-        <v>0.268962637761708</v>
+        <v>0.2636322720532663</v>
       </c>
       <c r="J17">
-        <v>0.1969673805863079</v>
+        <v>0.2785966347663675</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N17">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O17">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P17">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q17">
-        <v>14.88706419009334</v>
+        <v>13.74435239656845</v>
       </c>
       <c r="R17">
-        <v>89.32238514056</v>
+        <v>123.699171569116</v>
       </c>
       <c r="S17">
-        <v>0.01265546128790637</v>
+        <v>0.01279541223660453</v>
       </c>
       <c r="T17">
-        <v>0.009637095706079265</v>
+        <v>0.01392780878794958</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.39337</v>
+        <v>0.9888486666666667</v>
       </c>
       <c r="H18">
-        <v>2.78674</v>
+        <v>2.966546</v>
       </c>
       <c r="I18">
-        <v>0.268962637761708</v>
+        <v>0.2636322720532663</v>
       </c>
       <c r="J18">
-        <v>0.1969673805863079</v>
+        <v>0.2785966347663675</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>211.087055</v>
       </c>
       <c r="O18">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P18">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q18">
-        <v>98.04078994178333</v>
+        <v>69.57771762911445</v>
       </c>
       <c r="R18">
-        <v>588.2447396507</v>
+        <v>626.19945866203</v>
       </c>
       <c r="S18">
-        <v>0.08334426492025625</v>
+        <v>0.06477391977877843</v>
       </c>
       <c r="T18">
-        <v>0.06346640705676004</v>
+        <v>0.07050642468118042</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.39337</v>
+        <v>0.9888486666666667</v>
       </c>
       <c r="H19">
-        <v>2.78674</v>
+        <v>2.966546</v>
       </c>
       <c r="I19">
-        <v>0.268962637761708</v>
+        <v>0.2636322720532663</v>
       </c>
       <c r="J19">
-        <v>0.1969673805863079</v>
+        <v>0.2785966347663675</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N19">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O19">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P19">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q19">
-        <v>82.33573070829333</v>
+        <v>81.09317019169667</v>
       </c>
       <c r="R19">
-        <v>494.01438424976</v>
+        <v>729.8385317252701</v>
       </c>
       <c r="S19">
-        <v>0.06999342780315888</v>
+        <v>0.07549432030242123</v>
       </c>
       <c r="T19">
-        <v>0.05329978474827935</v>
+        <v>0.08217558280305691</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.39337</v>
+        <v>0.9888486666666667</v>
       </c>
       <c r="H20">
-        <v>2.78674</v>
+        <v>2.966546</v>
       </c>
       <c r="I20">
-        <v>0.268962637761708</v>
+        <v>0.2636322720532663</v>
       </c>
       <c r="J20">
-        <v>0.1969673805863079</v>
+        <v>0.2785966347663675</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N20">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O20">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P20">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q20">
-        <v>36.364699043915</v>
+        <v>24.77080396632967</v>
       </c>
       <c r="R20">
-        <v>145.45879617566</v>
+        <v>148.624823797978</v>
       </c>
       <c r="S20">
-        <v>0.0309135525393168</v>
+        <v>0.02306057346582879</v>
       </c>
       <c r="T20">
-        <v>0.01569371818531271</v>
+        <v>0.01673429256431462</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.39337</v>
+        <v>0.9888486666666667</v>
       </c>
       <c r="H21">
-        <v>2.78674</v>
+        <v>2.966546</v>
       </c>
       <c r="I21">
-        <v>0.268962637761708</v>
+        <v>0.2636322720532663</v>
       </c>
       <c r="J21">
-        <v>0.1969673805863079</v>
+        <v>0.2785966347663675</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N21">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O21">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P21">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q21">
-        <v>84.76192600274668</v>
+        <v>93.99786448648446</v>
       </c>
       <c r="R21">
-        <v>508.57155601648</v>
+        <v>845.9807803783601</v>
       </c>
       <c r="S21">
-        <v>0.07205593121106972</v>
+        <v>0.08750804626963334</v>
       </c>
       <c r="T21">
-        <v>0.0548703748898766</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1.194497666666667</v>
-      </c>
-      <c r="H22">
-        <v>3.583493</v>
-      </c>
-      <c r="I22">
-        <v>0.2305742503619801</v>
-      </c>
-      <c r="J22">
-        <v>0.2532820534242055</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>10.68421466666667</v>
-      </c>
-      <c r="N22">
-        <v>32.052644</v>
-      </c>
-      <c r="O22">
-        <v>0.04705285980693975</v>
-      </c>
-      <c r="P22">
-        <v>0.04892736897547583</v>
-      </c>
-      <c r="Q22">
-        <v>12.76226948949911</v>
-      </c>
-      <c r="R22">
-        <v>114.860425405492</v>
-      </c>
-      <c r="S22">
-        <v>0.01084917787737248</v>
-      </c>
-      <c r="T22">
-        <v>0.01239242448275228</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1.194497666666667</v>
-      </c>
-      <c r="H23">
-        <v>3.583493</v>
-      </c>
-      <c r="I23">
-        <v>0.2305742503619801</v>
-      </c>
-      <c r="J23">
-        <v>0.2532820534242055</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>70.36235166666667</v>
-      </c>
-      <c r="N23">
-        <v>211.087055</v>
-      </c>
-      <c r="O23">
-        <v>0.3098730203341347</v>
-      </c>
-      <c r="P23">
-        <v>0.3222178559101571</v>
-      </c>
-      <c r="Q23">
-        <v>84.04766488701279</v>
-      </c>
-      <c r="R23">
-        <v>756.4289839831149</v>
-      </c>
-      <c r="S23">
-        <v>0.0714487393709457</v>
-      </c>
-      <c r="T23">
-        <v>0.08161200019486933</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1.194497666666667</v>
-      </c>
-      <c r="H24">
-        <v>3.583493</v>
-      </c>
-      <c r="I24">
-        <v>0.2305742503619801</v>
-      </c>
-      <c r="J24">
-        <v>0.2532820534242055</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>59.09107466666666</v>
-      </c>
-      <c r="N24">
-        <v>177.273224</v>
-      </c>
-      <c r="O24">
-        <v>0.2602347611759026</v>
-      </c>
-      <c r="P24">
-        <v>0.2706020894912812</v>
-      </c>
-      <c r="Q24">
-        <v>70.5841508101591</v>
-      </c>
-      <c r="R24">
-        <v>635.257357291432</v>
-      </c>
-      <c r="S24">
-        <v>0.06000343497626264</v>
-      </c>
-      <c r="T24">
-        <v>0.06853865288723232</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1.194497666666667</v>
-      </c>
-      <c r="H25">
-        <v>3.583493</v>
-      </c>
-      <c r="I25">
-        <v>0.2305742503619801</v>
-      </c>
-      <c r="J25">
-        <v>0.2532820534242055</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>26.0983795</v>
-      </c>
-      <c r="N25">
-        <v>52.196759</v>
-      </c>
-      <c r="O25">
-        <v>0.1149362335102661</v>
-      </c>
-      <c r="P25">
-        <v>0.07967673702415903</v>
-      </c>
-      <c r="Q25">
-        <v>31.17445341653117</v>
-      </c>
-      <c r="R25">
-        <v>187.046720499187</v>
-      </c>
-      <c r="S25">
-        <v>0.02650133588105911</v>
-      </c>
-      <c r="T25">
-        <v>0.02018068756361942</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1.194497666666667</v>
-      </c>
-      <c r="H26">
-        <v>3.583493</v>
-      </c>
-      <c r="I26">
-        <v>0.2305742503619801</v>
-      </c>
-      <c r="J26">
-        <v>0.2532820534242055</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>60.83231733333334</v>
-      </c>
-      <c r="N26">
-        <v>182.496952</v>
-      </c>
-      <c r="O26">
-        <v>0.2679031251727568</v>
-      </c>
-      <c r="P26">
-        <v>0.2785759485989269</v>
-      </c>
-      <c r="Q26">
-        <v>72.6640611125929</v>
-      </c>
-      <c r="R26">
-        <v>653.976550013336</v>
-      </c>
-      <c r="S26">
-        <v>0.06177156225634012</v>
-      </c>
-      <c r="T26">
-        <v>0.07055828829573212</v>
+        <v>0.09525252592986604</v>
       </c>
     </row>
   </sheetData>
